--- a/ЛР ТОЭ.xlsx
+++ b/ЛР ТОЭ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\Desktop\ТОЭ ЛР\TOE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\Desktop\Учеба\ТОЭ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C3AA58-6358-497B-B866-B4FC25AEBF5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2F3430-814B-483C-86F8-390D1E05A38B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="4635" windowWidth="16200" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="L">Лист2!$B$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>I1</t>
   </si>
@@ -134,32 +135,41 @@
     <t>f, кГц</t>
   </si>
   <si>
+    <t>UR, В</t>
+  </si>
+  <si>
+    <t>UL, В</t>
+  </si>
+  <si>
+    <t>R, Ом</t>
+  </si>
+  <si>
+    <t>L, Гн</t>
+  </si>
+  <si>
+    <t>C, мкФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    вд</t>
+  </si>
+  <si>
+    <t>tпп</t>
+  </si>
+  <si>
+    <t>U0, В</t>
+  </si>
+  <si>
     <t>I, мА</t>
-  </si>
-  <si>
-    <t>UR, В</t>
-  </si>
-  <si>
-    <t>UL, В</t>
-  </si>
-  <si>
-    <t>R, Ом</t>
-  </si>
-  <si>
-    <t>L, Гн</t>
-  </si>
-  <si>
-    <t>C, мкФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    вд</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +195,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -284,10 +301,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -305,9 +323,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -326,14 +347,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="130420" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -375,6 +396,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -396,7 +418,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -438,6 +460,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -455,14 +478,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="130420" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -504,6 +527,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -525,7 +549,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -567,6 +591,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1025,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1064,7 @@
     <col min="12" max="13" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
@@ -1078,8 +1103,11 @@
       <c r="N1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>8.9015000000000001E-5</v>
       </c>
@@ -1103,8 +1131,12 @@
         <f>1/G2</f>
         <v>9.6444215532090697E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" s="12">
+        <f>3/G2</f>
+        <v>2.8933264659627208E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>8.9015000000000001E-5</v>
       </c>
@@ -1153,22 +1185,26 @@
         <f>0.5*I3/G3</f>
         <v>0.37267799624996495</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" s="12">
+        <f t="shared" ref="P3:P6" si="0">3/G3</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>9.8485000000000003E-5</v>
+        <v>1.5719700000000001E-4</v>
       </c>
       <c r="B4" s="1">
-        <v>12.436999999999999</v>
+        <v>6.4569999999999999</v>
       </c>
       <c r="C4" s="5">
-        <v>2.052</v>
+        <v>0.363122</v>
       </c>
       <c r="D4" s="9">
-        <v>7.6260000000000003</v>
+        <v>7.9020000000000001</v>
       </c>
       <c r="E4" s="5">
-        <v>-3.05</v>
+        <v>1.821</v>
       </c>
       <c r="F4">
         <f>_R3*17%</f>
@@ -1179,7 +1215,7 @@
         <v>10200</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H6" si="0">3/G4</f>
+        <f t="shared" ref="H4:H6" si="1">3/G4</f>
         <v>2.941176470588235E-4</v>
       </c>
       <c r="I4">
@@ -1187,24 +1223,28 @@
         <v>44721.359549995796</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J6" si="1">G4*G4-I4*I4</f>
+        <f t="shared" ref="J4:J6" si="2">G4*G4-I4*I4</f>
         <v>-1895960000.0000002</v>
       </c>
       <c r="K4" s="12" t="str">
-        <f t="shared" ref="K4:K6" si="2">IF(J4&lt;0,COMPLEX(-G4,SQRT(-J4),"i"),-G4+SQRT(J4))</f>
+        <f t="shared" ref="K4:K6" si="3">IF(J4&lt;0,COMPLEX(-G4,SQRT(-J4),"i"),-G4+SQRT(J4))</f>
         <v>-10200+43542,6227965197i</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f t="shared" ref="L4:L6" si="3">IF(J4&lt;0,COMPLEX(-G4,-SQRT(-J4),"i"),-G4-SQRT(J4))</f>
+        <f t="shared" ref="L4:L6" si="4">IF(J4&lt;0,COMPLEX(-G4,-SQRT(-J4),"i"),-G4-SQRT(J4))</f>
         <v>-10200-43542,6227965197i</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4">
-        <f t="shared" ref="N4:N6" si="4">0.5*I4/G4</f>
+        <f t="shared" ref="N4:N6" si="5">0.5*I4/G4</f>
         <v>2.1922235073527352</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" s="12">
+        <f t="shared" si="0"/>
+        <v>2.941176470588235E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>6.8182000000000006E-5</v>
       </c>
@@ -1229,7 +1269,7 @@
         <v>45000</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.666666666666667E-5</v>
       </c>
       <c r="I5">
@@ -1237,24 +1277,28 @@
         <v>44721.359549995796</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24999999.999999762</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" si="2"/>
+        <f>IF(J5&lt;0,COMPLEX(-G5,SQRT(-J5),"i"),-G5+SQRT(J5))</f>
         <v>-40000.000000000022</v>
       </c>
       <c r="L5" s="12">
-        <f t="shared" si="3"/>
+        <f>IF(J5&lt;0,COMPLEX(-G5,-SQRT(-J5),"i"),-G5-SQRT(J5))</f>
         <v>-49999.999999999978</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4969039949999533</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5" s="12">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>1.1363599999999999E-4</v>
       </c>
@@ -1279,7 +1323,7 @@
         <v>600</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I6">
@@ -1287,24 +1331,28 @@
         <v>44721.359549995796</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1999640000.0000002</v>
       </c>
       <c r="K6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-600+44717,3344464985i</v>
       </c>
       <c r="L6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-600-44717,3344464985i</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.267799624996499</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" s="12">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>8.7120999999999995E-5</v>
       </c>
@@ -1344,8 +1392,12 @@
         <f>IF(J7&lt;0,COMPLEX(-G7,-SQRT(-J7),"i"),-G7-SQRT(J7))</f>
         <v>-24800-61489,5113007088i</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P7" s="12">
+        <f>3/G7</f>
+        <v>1.2096774193548387E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1354,7 +1406,7 @@
       </c>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1377,7 +1429,7 @@
         <v>1.7139390846237341</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1393,19 +1445,19 @@
         <v>9.9999035557844671</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" ref="G10:G13" si="5">LN(C4/B4)/A4</f>
-        <v>-18295.790966777487</v>
+        <f t="shared" ref="G10:G13" si="6">LN(C4/B4)/A4</f>
+        <v>-18309.390297984814</v>
       </c>
       <c r="H10" s="12">
-        <f t="shared" ref="H10:H13" si="6">2*PI()/A4+C15</f>
-        <v>63798.398813825312</v>
+        <f t="shared" ref="H10:H13" si="7">2*PI()/A4+C15</f>
+        <v>39970.13497191159</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:I13" si="7">PI()/LN(B4/C4)</f>
-        <v>1.7435266649491676</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I10:I13" si="8">PI()/LN(B4/C4)</f>
+        <v>1.0915200976493145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1413,19 +1465,19 @@
         <v>2E-8</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-31321.871984857804</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>92153.138763597221</v>
       </c>
       <c r="I11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.471066908263778</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1433,11 +1485,11 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G12" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="H12" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55292.207638244807</v>
       </c>
       <c r="I12" t="e">
@@ -1445,17 +1497,17 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G13" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>72120.215644673342</v>
       </c>
       <c r="I13" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -1473,79 +1525,360 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72ACE55D-7FD9-49D7-AA26-C417FC0B824B}">
-  <dimension ref="A2:K9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7.5</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2</v>
+      </c>
+      <c r="D2" s="18">
+        <v>3.84</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="F2" s="17">
+        <v>1.86</v>
+      </c>
+      <c r="H2">
+        <v>66.5</v>
+      </c>
+      <c r="I2">
+        <f>E2/D2*1000</f>
+        <v>192.70833333333334</v>
+      </c>
+      <c r="J2">
+        <f>G2/(2*PI()*D2*B2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>D2/(2*PI()*F2*B2*1000000)</f>
+        <v>4.3810392937123874E-8</v>
+      </c>
+      <c r="L2">
+        <f>ATAN((G2-F2)/E2)*180/PI()</f>
+        <v>-68.304890539203114</v>
+      </c>
+      <c r="N2">
+        <f>SQRT(E2*E2+(F2-G2)*(F2-G2))</f>
+        <v>2.0017991907281809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17">
+        <v>6.6</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1.28</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1.44</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="0">E3/D3*1000</f>
+        <v>193.93939393939397</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="1">G3/(2*PI()*D3*B3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="2">D3/(2*PI()*F3*B3*1000000)</f>
+        <v>4.8630677055856913E-8</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="3">ATAN((G3-F3)/E3)*180/PI()</f>
+        <v>-48.366460663429812</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N8" si="4">SQRT(E3*E3+(F3-G3)*(F3-G3))</f>
+        <v>1.9266551326067671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7.5</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17">
+        <v>5.39</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1.04</v>
+      </c>
+      <c r="G4">
+        <v>1.64</v>
+      </c>
+      <c r="H4">
+        <v>44.1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>192.94990723562154</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>6.4567497011925384E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>57.61932229343077</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>1.9419577750301369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3.75</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17">
+        <v>6.84</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1.32</v>
+      </c>
+      <c r="G5">
+        <v>1.23</v>
+      </c>
+      <c r="H5">
+        <v>38.9</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>192.98245614035091</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>7.6319914231201278E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>42.978635059643985</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>1.8042449944505874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4.5</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2</v>
+      </c>
+      <c r="D6" s="17">
+        <v>3.35</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="F6" s="17">
+        <v>2.68</v>
+      </c>
+      <c r="G6">
+        <v>0.59</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>191.044776119403</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>6.2289496798818072E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>4.4209706414415372E-8</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>-72.974359150612031</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>2.1857950498617207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C7" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="17">
+        <v>8.99</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1.74</v>
+      </c>
+      <c r="F7" s="17">
+        <v>3.42</v>
+      </c>
+      <c r="G7">
+        <v>3.34</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>193.54838709677418</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>6.5699852913969894E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>4.6484825808841426E-8</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>-2.6324348689864867</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>1.7418381095842403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
         <v>7</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2</v>
+      </c>
+      <c r="D8" s="17">
+        <v>3.24</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G8">
+        <v>2.66</v>
+      </c>
+      <c r="H8">
+        <v>63.5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>191.35802469135803</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>7.2591246334780786E-3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>5.1156945993823497E-8</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>73.551391872960181</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>2.1896118377465901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f>SQRT(4-E7*E7)-F7</f>
+        <v>-2.4338965571503159</v>
       </c>
     </row>
   </sheetData>

--- a/ЛР ТОЭ.xlsx
+++ b/ЛР ТОЭ.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\Desktop\Учеба\ТОЭ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fedor_kv2an24\source\repos\Учеба\ТОЭ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2F3430-814B-483C-86F8-390D1E05A38B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_C1">Лист2!$B$10</definedName>
@@ -24,8 +24,7 @@
     <definedName name="_R3">Лист2!$B$9</definedName>
     <definedName name="L">Лист2!$B$12</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>I1</t>
   </si>
@@ -161,11 +160,29 @@
   <si>
     <t>I, мА</t>
   </si>
+  <si>
+    <t>U, В</t>
+  </si>
+  <si>
+    <t>I0, мА</t>
+  </si>
+  <si>
+    <t>f0, кГц</t>
+  </si>
+  <si>
+    <t>Uco, В</t>
+  </si>
+  <si>
+    <t>p, Ом</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -872,7 +889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1049,7 +1066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -1524,10 +1541,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72ACE55D-7FD9-49D7-AA26-C417FC0B824B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -1885,4 +1902,706 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>9.9619999999999997</v>
+      </c>
+      <c r="C2">
+        <v>14.212999999999999</v>
+      </c>
+      <c r="D2">
+        <v>22.175999999999998</v>
+      </c>
+      <c r="E2">
+        <f>A2/B2</f>
+        <v>0.20076289901626179</v>
+      </c>
+      <c r="F2">
+        <f>B2/(15-13.5)</f>
+        <v>6.6413333333333329</v>
+      </c>
+      <c r="G2">
+        <f>F2*E2</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H2">
+        <f>1/(2*PI()*C2*G2)</f>
+        <v>8.3983822781201374E-3</v>
+      </c>
+      <c r="I2">
+        <f>G2/(2*PI()*C2)</f>
+        <v>1.4930457383324689E-2</v>
+      </c>
+      <c r="L2">
+        <f>0.707*B2</f>
+        <v>7.0431339999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.6539999999999999</v>
+      </c>
+      <c r="C3">
+        <v>14.196</v>
+      </c>
+      <c r="D3">
+        <v>3.7170000000000001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="0">A3/B3</f>
+        <v>1.2091898428053205</v>
+      </c>
+      <c r="F3">
+        <f>B3/(18-12)</f>
+        <v>0.27566666666666667</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="1">F3*E3</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="2">1/(2*PI()*C3*G3)</f>
+        <v>3.3633758049851081E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="3">G3/(2*PI()*C3)</f>
+        <v>3.7370842277612325E-3</v>
+      </c>
+      <c r="L3">
+        <f>0.707*B3</f>
+        <v>1.1693779999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="C4">
+        <v>7.1420000000000003</v>
+      </c>
+      <c r="D4">
+        <v>1.857</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.2004801920768309</v>
+      </c>
+      <c r="F4">
+        <f>B4/(12-4)</f>
+        <v>0.20824999999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>8.9137464627216653E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>5.5710915392010408E-3</v>
+      </c>
+      <c r="L4">
+        <f>0.707*B4</f>
+        <v>1.177862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1.24</v>
+      </c>
+      <c r="C8">
+        <f>A$2/B8</f>
+        <v>1.6129032258064517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1.71</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:C20" si="4">A$2/B9</f>
+        <v>1.1695906432748537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2.58</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>0.77519379844961234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>4.59</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>0.4357298474945534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13.5</v>
+      </c>
+      <c r="B12">
+        <v>6.72</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>0.29761904761904762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>0.20790020790020791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14.5</v>
+      </c>
+      <c r="B14">
+        <v>8.91</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>0.22446689113355781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>6.17</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>0.32414910858995138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>3.43</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>0.58309037900874627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>2.35</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>0.85106382978723405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1.82</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>1.0989010989010988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0.13</v>
+      </c>
+      <c r="C20">
+        <f>A$3/B20</f>
+        <v>15.384615384615383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>0.27</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C36" si="5">A$3/B21</f>
+        <v>7.4074074074074066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>0.44</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="5"/>
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>0.67</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="5"/>
+        <v>2.9850746268656714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>1.41</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="5"/>
+        <v>1.4184397163120568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>1.67</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>1.1976047904191618</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>1.52</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="5"/>
+        <v>1.3157894736842106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>1.21</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="5"/>
+        <v>1.6528925619834711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>0.84</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="5"/>
+        <v>2.3809523809523809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>0.72</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="5"/>
+        <v>2.7777777777777777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0.63</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="5"/>
+        <v>3.1746031746031744</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="5"/>
+        <v>3.5714285714285712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>0.51</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="5"/>
+        <v>3.9215686274509802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>0.52</v>
+      </c>
+      <c r="C36">
+        <f>A$4/B36</f>
+        <v>3.8461538461538458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>0.8</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:C53" si="6">A$4/B37</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="6"/>
+        <v>1.8018018018018016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>1.38</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="6"/>
+        <v>1.4492753623188408</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5.5</v>
+      </c>
+      <c r="B40">
+        <v>1.5</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="6"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>1.59</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="6"/>
+        <v>1.2578616352201257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6.5</v>
+      </c>
+      <c r="B42">
+        <v>1.64</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="6"/>
+        <v>1.2195121951219512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>1.67</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="6"/>
+        <v>1.1976047904191618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7.5</v>
+      </c>
+      <c r="B44">
+        <v>1.66</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="6"/>
+        <v>1.2048192771084338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>1.63</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="6"/>
+        <v>1.2269938650306749</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>8.5</v>
+      </c>
+      <c r="B46">
+        <v>1.58</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="6"/>
+        <v>1.2658227848101264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>1.53</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="6"/>
+        <v>1.3071895424836601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>1.4</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>1.28</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="6"/>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>1.17</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="6"/>
+        <v>1.7094017094017095</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>1.07</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="6"/>
+        <v>1.8691588785046729</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>0.99</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="6"/>
+        <v>2.0202020202020203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>0.92</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="6"/>
+        <v>2.1739130434782608</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ЛР ТОЭ.xlsx
+++ b/ЛР ТОЭ.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fedor_kv2an24\source\repos\Учеба\ТОЭ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\Desktop\Учеба\ТОЭ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD998F5-D442-43F4-A99E-C87CC06A1222}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_C1">Лист2!$B$10</definedName>
@@ -24,7 +26,7 @@
     <definedName name="_R3">Лист2!$B$9</definedName>
     <definedName name="L">Лист2!$B$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>I1</t>
   </si>
@@ -176,13 +178,50 @@
     <t>p, Ом</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Y, См</t>
+  </si>
+  <si>
+    <t>Uвх/Ur</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ϕ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, ...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>°</t>
+    </r>
+  </si>
+  <si>
+    <t>|Z|, кОм</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -358,6 +397,2707 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8255977925314996E-2"/>
+          <c:y val="0.17821006140466211"/>
+          <c:w val="0.90750267327695144"/>
+          <c:h val="0.71032658680600347"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Первый эксперимент</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист4!$A$8:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист4!$C$8:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.2E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5500000000000007E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2900000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2949999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3599999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.81E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4549999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0850000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7150000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.175E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1000000000000011E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98BC-4139-AC7E-901C1402A6BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Второй эксперимент</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист4!$E$8:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист4!$G$8:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.5000000000000008E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.35E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3499999999999991E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5999999999999993E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0499999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1999999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8000000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5500000000000002E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-98BC-4139-AC7E-901C1402A6BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Третий эксперимент</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист4!$I$8:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист4!$K$8:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2.6000000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9500000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2000000000000009E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3499999999999991E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1499999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4000000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.8500000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.95E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6000000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-98BC-4139-AC7E-901C1402A6BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="923126879"/>
+        <c:axId val="923127295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="923126879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>f,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+                  <a:t>кГц</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43940287290552887"/>
+              <c:y val="0.94592260383036531"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923127295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="923127295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Y,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+                  <a:t>См</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.044156992476618E-2"/>
+              <c:y val="0.4938124942174435"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923126879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24228328670920002"/>
+          <c:y val="8.1632653061224483E-2"/>
+          <c:w val="0.48187421393235819"/>
+          <c:h val="4.1744262486669695E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8255977925314996E-2"/>
+          <c:y val="0.17821006140466211"/>
+          <c:w val="0.90750267327695144"/>
+          <c:h val="0.71032658680600347"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Первый эксперимент</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист4!$A$8:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист4!$B$8:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E83D-46FF-A71B-0B2329BFE956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Второй эксперимент</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист4!$E$8:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист4!$F$8:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E83D-46FF-A71B-0B2329BFE956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Третий эксперимент</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист4!$I$8:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист4!$J$8:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E83D-46FF-A71B-0B2329BFE956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="923126879"/>
+        <c:axId val="923127295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="923126879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>f,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+                  <a:t>кГц</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43940287290552887"/>
+              <c:y val="0.94592260383036531"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923127295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="923127295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>I, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>мА</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.044156992476618E-2"/>
+              <c:y val="0.4938124942174435"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923126879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24228328670920002"/>
+          <c:y val="8.1632653061224483E-2"/>
+          <c:w val="0.48187421393235819"/>
+          <c:h val="4.1744262486669695E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,6 +3367,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC8E9DC-B946-4568-A898-3B2C48D82895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1836541C-A27B-4639-AF7C-E9BE11813D74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -889,7 +3708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1066,7 +3885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -1541,7 +4360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1905,11 +4724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,20 +4785,20 @@
         <v>0.20076289901626179</v>
       </c>
       <c r="F2">
-        <f>B2/(15-13.5)</f>
-        <v>6.6413333333333329</v>
+        <f>D2/A2</f>
+        <v>11.087999999999999</v>
       </c>
       <c r="G2">
         <f>F2*E2</f>
-        <v>1.3333333333333333</v>
+        <v>2.2260590242923106</v>
       </c>
       <c r="H2">
         <f>1/(2*PI()*C2*G2)</f>
-        <v>8.3983822781201374E-3</v>
+        <v>5.0303441711539694E-3</v>
       </c>
       <c r="I2">
         <f>G2/(2*PI()*C2)</f>
-        <v>1.4930457383324689E-2</v>
+        <v>2.4927059546221261E-2</v>
       </c>
       <c r="L2">
         <f>0.707*B2</f>
@@ -2004,20 +4823,20 @@
         <v>1.2091898428053205</v>
       </c>
       <c r="F3">
-        <f>B3/(18-12)</f>
-        <v>0.27566666666666667</v>
+        <f t="shared" ref="F3:F4" si="1">D3/A3</f>
+        <v>1.8585</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G4" si="1">F3*E3</f>
-        <v>0.33333333333333337</v>
+        <f t="shared" ref="G3:G4" si="2">F3*E3</f>
+        <v>2.247279322853688</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H4" si="2">1/(2*PI()*C3*G3)</f>
-        <v>3.3633758049851081E-2</v>
+        <f t="shared" ref="H3:H4" si="3">1/(2*PI()*C3*G3)</f>
+        <v>4.9888113904092641E-3</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I4" si="3">G3/(2*PI()*C3)</f>
-        <v>3.7370842277612325E-3</v>
+        <f t="shared" ref="I3:I4" si="4">G3/(2*PI()*C3)</f>
+        <v>2.5194816338431378E-2</v>
       </c>
       <c r="L3">
         <f>0.707*B3</f>
@@ -2042,20 +4861,20 @@
         <v>1.2004801920768309</v>
       </c>
       <c r="F4">
-        <f>B4/(12-4)</f>
-        <v>0.20824999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.92849999999999999</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <f t="shared" si="2"/>
+        <v>1.1146458583433374</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
-        <v>8.9137464627216653E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.9992328496088174E-2</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
-        <v>5.5710915392010408E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.4839176442488196E-2</v>
       </c>
       <c r="L4">
         <f>0.707*B4</f>
@@ -2072,6 +4891,24 @@
       <c r="C7" t="s">
         <v>43</v>
       </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2081,8 +4918,28 @@
         <v>1.24</v>
       </c>
       <c r="C8">
-        <f>A$2/B8</f>
-        <v>1.6129032258064517</v>
+        <f>1/(A$2/B8)/1000</f>
+        <v>6.2E-4</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.13</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G22" si="5">1/(A$2/F8)/1000</f>
+        <v>6.5000000000000008E-5</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0.52</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K25" si="6">1/(A$2/J8)/1000</f>
+        <v>2.6000000000000003E-4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2093,8 +4950,28 @@
         <v>1.71</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C20" si="4">A$2/B9</f>
-        <v>1.1695906432748537</v>
+        <f t="shared" ref="C9:C18" si="7">1/(A$2/B9)/1000</f>
+        <v>8.5500000000000007E-4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0.27</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>1.35E-4</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0.8</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2105,8 +4982,28 @@
         <v>2.58</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
-        <v>0.77519379844961234</v>
+        <f t="shared" si="7"/>
+        <v>1.2900000000000001E-3</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>0.44</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>2.1999999999999998E-4</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>5.5500000000000005E-4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2117,8 +5014,28 @@
         <v>4.59</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
-        <v>0.4357298474945534</v>
+        <f t="shared" si="7"/>
+        <v>2.2949999999999997E-3</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>0.67</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>3.3500000000000001E-4</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1.38</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>6.8999999999999997E-4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2129,8 +5046,28 @@
         <v>6.72</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
-        <v>0.29761904761904762</v>
+        <f t="shared" si="7"/>
+        <v>3.3599999999999997E-3</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I12">
+        <v>5.5</v>
+      </c>
+      <c r="J12">
+        <v>1.5</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>7.5000000000000002E-4</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2141,8 +5078,28 @@
         <v>9.6199999999999992</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
-        <v>0.20790020790020791</v>
+        <f t="shared" si="7"/>
+        <v>4.81E-3</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>1.41</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>7.0500000000000001E-4</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>1.59</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>7.9500000000000003E-4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2153,8 +5110,28 @@
         <v>8.91</v>
       </c>
       <c r="C14">
-        <f t="shared" si="4"/>
-        <v>0.22446689113355781</v>
+        <f t="shared" si="7"/>
+        <v>4.4549999999999998E-3</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>1.67</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>8.3499999999999991E-4</v>
+      </c>
+      <c r="I14">
+        <v>6.5</v>
+      </c>
+      <c r="J14">
+        <v>1.64</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>8.2000000000000009E-4</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2165,8 +5142,28 @@
         <v>6.17</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
-        <v>0.32414910858995138</v>
+        <f t="shared" si="7"/>
+        <v>3.0850000000000001E-3</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>1.52</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>7.5999999999999993E-4</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>1.67</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>8.3499999999999991E-4</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2177,11 +5174,31 @@
         <v>3.43</v>
       </c>
       <c r="C16">
-        <f t="shared" si="4"/>
-        <v>0.58309037900874627</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.7150000000000004E-3</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>1.21</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>6.0499999999999996E-4</v>
+      </c>
+      <c r="I16">
+        <v>7.5</v>
+      </c>
+      <c r="J16">
+        <v>1.66</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>8.3000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2189,11 +5206,31 @@
         <v>2.35</v>
       </c>
       <c r="C17">
-        <f t="shared" si="4"/>
-        <v>0.85106382978723405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.175E-3</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>1.63</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>8.1499999999999997E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2201,404 +5238,743 @@
         <v>1.82</v>
       </c>
       <c r="C18">
-        <f t="shared" si="4"/>
-        <v>1.0989010989010988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>9.1000000000000011E-4</v>
+      </c>
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>0.84</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>4.1999999999999996E-4</v>
+      </c>
+      <c r="I18">
+        <v>8.5</v>
+      </c>
+      <c r="J18">
+        <v>1.58</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>7.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>24</v>
+      </c>
+      <c r="F19">
+        <v>0.72</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>3.5999999999999997E-4</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <v>1.53</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>7.6500000000000005E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <v>0.63</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>3.1500000000000001E-4</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>1.4</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>2.8000000000000003E-4</v>
+      </c>
+      <c r="I21">
+        <v>11</v>
+      </c>
+      <c r="J21">
+        <v>1.28</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>6.4000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>0.51</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>2.5500000000000002E-4</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>1.17</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>5.8500000000000002E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>13</v>
+      </c>
+      <c r="J23">
+        <v>1.07</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>5.3499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <v>0.99</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>4.95E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <v>0.92</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>4.6000000000000001E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D60C465-3093-4A3F-A15D-E63C69D0411C}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3.165</v>
+      </c>
+      <c r="B2">
+        <v>28.08</v>
+      </c>
+      <c r="C2">
+        <v>37.56</v>
+      </c>
+      <c r="D2">
+        <f>B2*F2</f>
+        <v>28080</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.1720000000000002</v>
+      </c>
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>25.07</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D42" si="0">B3*F3</f>
+        <v>32000</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.1789999999999998</v>
+      </c>
+      <c r="B4">
+        <v>34.61</v>
+      </c>
+      <c r="C4">
+        <v>9.41</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>34610</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3.1869999999999998</v>
+      </c>
+      <c r="B5">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="C5">
+        <v>-7.64</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>34450</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.194</v>
+      </c>
+      <c r="B6">
+        <v>31.55</v>
+      </c>
+      <c r="C6">
+        <v>-23.25</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>31550</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.2010000000000001</v>
+      </c>
+      <c r="B7">
+        <v>27.4</v>
+      </c>
+      <c r="C7">
+        <v>-35.630000000000003</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>27400</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8.1539999999999999</v>
+      </c>
+      <c r="B8">
+        <v>34.85</v>
+      </c>
+      <c r="C8">
+        <v>23.62</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>34850</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8.1829999999999998</v>
+      </c>
+      <c r="B9">
+        <v>37.26</v>
+      </c>
+      <c r="C9">
+        <v>13.4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>37260</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8.2119999999999997</v>
+      </c>
+      <c r="B10">
+        <v>38.369999999999997</v>
+      </c>
+      <c r="C10">
+        <v>2.13</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>38370</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8.2420000000000009</v>
+      </c>
+      <c r="B11">
+        <v>38.04</v>
+      </c>
+      <c r="C11">
+        <v>-9.33</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>38040</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8.2710000000000008</v>
+      </c>
+      <c r="B12">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="C12">
+        <v>-19.96</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>36160</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B13">
+        <v>33.5</v>
+      </c>
+      <c r="C13">
+        <v>-29.33</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>33500</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.633</v>
+      </c>
+      <c r="B15">
+        <v>5.86</v>
+      </c>
+      <c r="C15">
+        <v>-47.33</v>
+      </c>
+      <c r="D15">
+        <f>B15*F15</f>
+        <v>58600</v>
+      </c>
+      <c r="F15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="B16">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C16">
+        <v>-51.48</v>
+      </c>
+      <c r="D16">
+        <f>B16*F16</f>
+        <v>41900.000000000007</v>
+      </c>
+      <c r="F16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3.4990000000000001</v>
+      </c>
+      <c r="B17">
+        <v>2.91</v>
+      </c>
+      <c r="C17">
+        <v>-49.97</v>
+      </c>
+      <c r="D17">
+        <f>B17*F17</f>
+        <v>29100</v>
+      </c>
+      <c r="F17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5.0289999999999999</v>
+      </c>
+      <c r="B18">
+        <v>1.93</v>
+      </c>
+      <c r="C18">
+        <v>-39.68</v>
+      </c>
+      <c r="D18">
+        <f>B18*F18</f>
+        <v>19300</v>
+      </c>
+      <c r="F18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8.3569999999999993</v>
+      </c>
+      <c r="B19">
+        <v>1.33</v>
+      </c>
+      <c r="C19">
+        <v>1.77</v>
+      </c>
+      <c r="D19">
+        <f>B19*F19</f>
+        <v>13300</v>
+      </c>
+      <c r="F19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2</v>
+        <v>12.01</v>
       </c>
       <c r="B20">
-        <v>0.13</v>
+        <v>1.71</v>
       </c>
       <c r="C20">
-        <f>A$3/B20</f>
-        <v>15.384615384615383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33.630000000000003</v>
+      </c>
+      <c r="D20">
+        <f>B20*F20</f>
+        <v>17100</v>
+      </c>
+      <c r="F20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4</v>
+        <v>17.265000000000001</v>
       </c>
       <c r="B21">
-        <v>0.27</v>
+        <v>2.58</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C36" si="5">A$3/B21</f>
-        <v>7.4074074074074066</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D21">
+        <f>B21*F21</f>
+        <v>25800</v>
+      </c>
+      <c r="F21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>6</v>
+        <v>24.815000000000001</v>
       </c>
       <c r="B22">
-        <v>0.44</v>
+        <v>3.77</v>
       </c>
       <c r="C22">
-        <f t="shared" si="5"/>
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51.67</v>
+      </c>
+      <c r="D22">
+        <f>B22*F22</f>
+        <v>37700</v>
+      </c>
+      <c r="F22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8</v>
+        <v>35.665999999999997</v>
       </c>
       <c r="B23">
-        <v>0.67</v>
+        <v>5.22</v>
       </c>
       <c r="C23">
-        <f t="shared" si="5"/>
-        <v>2.9850746268656714</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49.42</v>
+      </c>
+      <c r="D23">
+        <f>B23*F23</f>
+        <v>52200</v>
+      </c>
+      <c r="F23">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>12</v>
+        <v>4.0460000000000003</v>
       </c>
       <c r="B25">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="C25">
-        <f t="shared" si="5"/>
-        <v>1.4184397163120568</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24.15</v>
+      </c>
+      <c r="D25">
+        <f>B25*F25</f>
+        <v>438</v>
+      </c>
+      <c r="F25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>14</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="B26">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="C26">
-        <f t="shared" si="5"/>
-        <v>1.1976047904191618</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27.94</v>
+      </c>
+      <c r="D26">
+        <f>B26*F26</f>
+        <v>459</v>
+      </c>
+      <c r="F26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>16</v>
+        <v>7.2290000000000001</v>
       </c>
       <c r="B27">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
       <c r="C27">
-        <f t="shared" si="5"/>
-        <v>1.3157894736842106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36.89</v>
+      </c>
+      <c r="D27">
+        <f>B27*F27</f>
+        <v>531</v>
+      </c>
+      <c r="F27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>18</v>
+        <v>11.170999999999999</v>
       </c>
       <c r="B28">
-        <v>1.21</v>
+        <v>2.25</v>
       </c>
       <c r="C28">
-        <f t="shared" si="5"/>
-        <v>1.6528925619834711</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45.802999999999997</v>
+      </c>
+      <c r="D28">
+        <f>B28*F28</f>
+        <v>675</v>
+      </c>
+      <c r="F28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20</v>
+        <v>16.056999999999999</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2.92</v>
       </c>
       <c r="C29">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50.72</v>
+      </c>
+      <c r="D29">
+        <f>B29*F29</f>
+        <v>876</v>
+      </c>
+      <c r="F29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>22</v>
+        <v>24.815000000000001</v>
       </c>
       <c r="B30">
-        <v>0.84</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="C30">
-        <f t="shared" si="5"/>
-        <v>2.3809523809523809</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52.15</v>
+      </c>
+      <c r="D30">
+        <f>B30*F30</f>
+        <v>1233</v>
+      </c>
+      <c r="F30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>24</v>
+        <v>39.767000000000003</v>
       </c>
       <c r="B31">
-        <v>0.72</v>
+        <v>5.86</v>
       </c>
       <c r="C31">
-        <f t="shared" si="5"/>
-        <v>2.7777777777777777</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47.798999999999999</v>
+      </c>
+      <c r="D31">
+        <f>B31*F31</f>
+        <v>1758</v>
+      </c>
+      <c r="F31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>26</v>
+        <v>59.268999999999998</v>
       </c>
       <c r="B32">
-        <v>0.63</v>
+        <v>7.5</v>
       </c>
       <c r="C32">
-        <f t="shared" si="5"/>
-        <v>3.1746031746031744</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40.32</v>
+      </c>
+      <c r="D32">
+        <f>B32*F32</f>
+        <v>2250</v>
+      </c>
+      <c r="F32">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>28</v>
+        <v>85.186999999999998</v>
       </c>
       <c r="B33">
-        <v>0.56000000000000005</v>
+        <v>8.81</v>
       </c>
       <c r="C33">
-        <f t="shared" si="5"/>
-        <v>3.5714285714285712</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32.15</v>
+      </c>
+      <c r="D33">
+        <f>B33*F33</f>
+        <v>2643</v>
+      </c>
+      <c r="F33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>30</v>
+        <v>126.962</v>
       </c>
       <c r="B34">
-        <v>0.51</v>
+        <v>9.83</v>
       </c>
       <c r="C34">
-        <f t="shared" si="5"/>
-        <v>3.9215686274509802</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36">
-        <v>0.52</v>
-      </c>
-      <c r="C36">
-        <f>A$4/B36</f>
-        <v>3.8461538461538458</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>3</v>
-      </c>
-      <c r="B37">
-        <v>0.8</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ref="C37:C53" si="6">A$4/B37</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>4</v>
-      </c>
-      <c r="B38">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="6"/>
-        <v>1.8018018018018016</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>5</v>
-      </c>
-      <c r="B39">
-        <v>1.38</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="6"/>
-        <v>1.4492753623188408</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>5.5</v>
-      </c>
-      <c r="B40">
-        <v>1.5</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="6"/>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>6</v>
-      </c>
-      <c r="B41">
-        <v>1.59</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="6"/>
-        <v>1.2578616352201257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>6.5</v>
-      </c>
-      <c r="B42">
-        <v>1.64</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="6"/>
-        <v>1.2195121951219512</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>7</v>
-      </c>
-      <c r="B43">
-        <v>1.67</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="6"/>
-        <v>1.1976047904191618</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>7.5</v>
-      </c>
-      <c r="B44">
-        <v>1.66</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="6"/>
-        <v>1.2048192771084338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>8</v>
-      </c>
-      <c r="B45">
-        <v>1.63</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="6"/>
-        <v>1.2269938650306749</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>8.5</v>
-      </c>
-      <c r="B46">
-        <v>1.58</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="6"/>
-        <v>1.2658227848101264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>9</v>
-      </c>
-      <c r="B47">
-        <v>1.53</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="6"/>
-        <v>1.3071895424836601</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>10</v>
-      </c>
-      <c r="B48">
-        <v>1.4</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="6"/>
-        <v>1.4285714285714286</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>11</v>
-      </c>
-      <c r="B49">
-        <v>1.28</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="6"/>
-        <v>1.5625</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50">
-        <v>1.17</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="6"/>
-        <v>1.7094017094017095</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>13</v>
-      </c>
-      <c r="B51">
-        <v>1.07</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="6"/>
-        <v>1.8691588785046729</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>14</v>
-      </c>
-      <c r="B52">
-        <v>0.99</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="6"/>
-        <v>2.0202020202020203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>15</v>
-      </c>
-      <c r="B53">
-        <v>0.92</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="6"/>
-        <v>2.1739130434782608</v>
+        <v>23.56</v>
+      </c>
+      <c r="D34">
+        <f>B34*F34</f>
+        <v>2949</v>
+      </c>
+      <c r="F34">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
